--- a/Gestion de projet/PAQL/PAQL.xlsx
+++ b/Gestion de projet/PAQL/PAQL.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Interopérabilité" sheetId="2" r:id="rId1"/>
     <sheet name="Adéquation" sheetId="3" r:id="rId2"/>
     <sheet name="Exploitabilité" sheetId="4" r:id="rId3"/>
-    <sheet name="Sécurité" sheetId="5" r:id="rId4"/>
-    <sheet name="Maturité" sheetId="6" r:id="rId5"/>
-    <sheet name="Tolérence au panne" sheetId="7" r:id="rId6"/>
+    <sheet name="Maturité" sheetId="6" r:id="rId4"/>
+    <sheet name="Sécurité" sheetId="5" r:id="rId5"/>
+    <sheet name="Tolérence au pannes" sheetId="7" r:id="rId6"/>
     <sheet name="Modifiabilité" sheetId="8" r:id="rId7"/>
     <sheet name="Testabilité" sheetId="9" r:id="rId8"/>
     <sheet name="Couplage" sheetId="10" r:id="rId9"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="205">
   <si>
     <t>Evaluation de la qualité</t>
   </si>
@@ -129,45 +129,18 @@
     <t>somme (1 si la fonction adéquate 0 sinon)</t>
   </si>
   <si>
-    <t xml:space="preserve"> standard utilisé</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Besoin</t>
-  </si>
-  <si>
-    <t>Fonction</t>
-  </si>
-  <si>
     <t>Evaluation</t>
   </si>
   <si>
     <t>standard devraiet etre utilisé</t>
   </si>
   <si>
-    <t>http://www.w3schools.com/js/js_conventions.asp</t>
-  </si>
-  <si>
-    <t>JavaScript Coding Conventions</t>
-  </si>
-  <si>
-    <t>Espace entre les opérateurs mathématique</t>
-  </si>
-  <si>
-    <t>Noms de variable commence par majuscule</t>
-  </si>
-  <si>
-    <t>la non utilisation de tabulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">la capacité à exploiter correctement le système logiciel </t>
   </si>
   <si>
-    <t>possibilité de deployer de nouvelles version</t>
-  </si>
-  <si>
     <t>Détection des bugs</t>
   </si>
   <si>
@@ -198,12 +171,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Possibilité de modifier la code source par n'importe qui?</t>
-  </si>
-  <si>
-    <t>Protocole de sécurité</t>
-  </si>
-  <si>
     <t>Indice de nécessité</t>
   </si>
   <si>
@@ -216,12 +183,6 @@
     <t>Somme[Indice_de_necéssité*(Oui/Non)]/Total</t>
   </si>
   <si>
-    <t>http://www.adeli.org/document/205-l38p18pdf</t>
-  </si>
-  <si>
-    <t>Modèle CMM</t>
-  </si>
-  <si>
     <t>la capacité d’un produit logiciel à éviter les pannes</t>
   </si>
   <si>
@@ -538,6 +499,150 @@
   </si>
   <si>
     <t>SCOPE</t>
+  </si>
+  <si>
+    <t>Les noms de variables commence par majiscule</t>
+  </si>
+  <si>
+    <t>Les noms de fonctions commence par majiscule</t>
+  </si>
+  <si>
+    <t>Espacement entre les opérateurs</t>
+  </si>
+  <si>
+    <t>Tous les délaration terminent par point virgule</t>
+  </si>
+  <si>
+    <t>accolade de début au meme ligne que la declaration</t>
+  </si>
+  <si>
+    <t>espacement entre chaque valeur et propriété</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>une ligne de code doit etre inférieur à 80 caractére</t>
+  </si>
+  <si>
+    <t>la forme du fichier est HTML</t>
+  </si>
+  <si>
+    <t>L'extension du css est .css</t>
+  </si>
+  <si>
+    <t>L'extension du javascript est .js</t>
+  </si>
+  <si>
+    <t>Les noms de variables</t>
+  </si>
+  <si>
+    <t>Extension des fichiers</t>
+  </si>
+  <si>
+    <t>Génération 3D</t>
+  </si>
+  <si>
+    <t>A_x001E_chage des courbes</t>
+  </si>
+  <si>
+    <t>Choix de la connexité</t>
+  </si>
+  <si>
+    <t>Choix des dimensions de l'espace 3D</t>
+  </si>
+  <si>
+    <t>Mouvement de caméra</t>
+  </si>
+  <si>
+    <t>Mise en évidence d'une méridienne/courbe de révolution</t>
+  </si>
+  <si>
+    <t>Choix des courbes parmis les modèles</t>
+  </si>
+  <si>
+    <t>Dessin à main levée de la méridienne</t>
+  </si>
+  <si>
+    <t>Modi_x001C_cation des paramètres des courbes</t>
+  </si>
+  <si>
+    <t>Options avancées pour les paramètres des courbes</t>
+  </si>
+  <si>
+    <t>A_x001E_cher/cacher les limites de l'espace 3D</t>
+  </si>
+  <si>
+    <t>Export des surfaces dans un _x001C_chier 3D</t>
+  </si>
+  <si>
+    <t>Export des surfaces dans un _x001C_chier d'impression 3D</t>
+  </si>
+  <si>
+    <t>Choix des dimensions d'a_x001E_chage de l'espace 3D (multicoupes)</t>
+  </si>
+  <si>
+    <t>Accès à l'aide utilisateur</t>
+  </si>
+  <si>
+    <t>A_x001E_chage du repère 3D</t>
+  </si>
+  <si>
+    <t>A_x001E_cher/cacher la grille de repérage des courbes</t>
+  </si>
+  <si>
+    <t>Export en PNG des courbes et de la surfaces</t>
+  </si>
+  <si>
+    <t>Réglage de la taille d'a_x001E_chage des voxels</t>
+  </si>
+  <si>
+    <t>A_x001E_chage de l'espace 3D en vue orthographique/perspective</t>
+  </si>
+  <si>
+    <t>Entrer une équation</t>
+  </si>
+  <si>
+    <t>Sauvergarde des courbes</t>
+  </si>
+  <si>
+    <t>Chargement des courbes</t>
+  </si>
+  <si>
+    <t>Ajout de courbe prédé_x001C_nie</t>
+  </si>
+  <si>
+    <t>Choix de la langue</t>
+  </si>
+  <si>
+    <t>Niveau 1</t>
+  </si>
+  <si>
+    <t>Niveau2</t>
+  </si>
+  <si>
+    <t>Niveau 3</t>
+  </si>
+  <si>
+    <t>Niveau 4</t>
+  </si>
+  <si>
+    <t>Niveau 5</t>
+  </si>
+  <si>
+    <t>Besoins</t>
+  </si>
+  <si>
+    <t>Fonctions</t>
+  </si>
+  <si>
+    <t>possibilité de deployer de nouvelles versions</t>
+  </si>
+  <si>
+    <t>Possibilité de modifier la code source par n'importe qui</t>
+  </si>
+  <si>
+    <t>Le logiciel utilise un protocole de sécurité</t>
   </si>
 </sst>
 </file>
@@ -619,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1302,13 +1407,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1571,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,89 +1679,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1572,6 +1719,342 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5312416" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="2686050"/>
+          <a:ext cx="5312416" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Références : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://www.w3schools.com/js/js_conventions.asp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L'intéropérabilité</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Désigne la capacité à interagir avec un ou plusieurs systèmes. </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5349093" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="5486400"/>
+          <a:ext cx="5349093" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Références : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Annexe : Descriptif des fonctionnalités</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>L'adéquation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Désigne l’existence de fonctions adéquates pour les tâches requises. </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4585166" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1962150"/>
+          <a:ext cx="4585166" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Références : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fiabilité</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>désigne la capacité à exploiter correctement le système logiciel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1957,10 +2440,241 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6526915" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="4267200"/>
+          <a:ext cx="6526915" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Références : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Modèle CMM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://www.adeli.org/document/205-l38p18pdf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Maturité</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Désigne la capacité d’un produit logiciel à éviter les pannes résultantes d’erreurs dans le logiciel</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10336291" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="2867025"/>
+          <a:ext cx="10336291" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Références : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tolérences au pannes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1" i="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Désigne la capacité à maintenir le niveau de performance en cas d’erreur logiciel et de non respect des interfaces d’interactions avec le logiciel.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2675,31 +3389,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="72"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>2</v>
@@ -2720,13 +3435,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>168</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -2734,115 +3450,90 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
       <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="E11" s="59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="113"/>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2861,7 +3552,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4"/>
       <c r="E3" s="42" t="s">
@@ -2885,7 +3576,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4"/>
       <c r="E4" s="41"/>
@@ -2897,7 +3588,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -2929,10 +3620,10 @@
     </row>
     <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2991,19 +3682,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3011,7 +3702,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4">
         <v>0.5</v>
@@ -3019,7 +3710,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -3050,41 +3741,41 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3093,7 +3784,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3102,13 +3793,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3161,53 +3852,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="107"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="110"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3228,34 +3919,34 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="83">
+      <c r="F4" s="97">
         <v>1</v>
       </c>
-      <c r="G4" s="84"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="83">
+      <c r="I4" s="97">
         <v>2</v>
       </c>
-      <c r="J4" s="84"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="83">
+      <c r="L4" s="97">
         <v>3</v>
       </c>
-      <c r="M4" s="84"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="83">
+      <c r="O4" s="97">
         <v>4</v>
       </c>
-      <c r="P4" s="84"/>
+      <c r="P4" s="98"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="83">
+      <c r="R4" s="97">
         <v>5</v>
       </c>
-      <c r="S4" s="84"/>
+      <c r="S4" s="98"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3307,11 +3998,11 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="13"/>
@@ -3334,11 +4025,11 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="13"/>
@@ -3359,11 +4050,11 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="31"/>
       <c r="G8" s="1"/>
       <c r="H8" s="13"/>
@@ -3384,9 +4075,9 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="30"/>
       <c r="G9" s="29"/>
       <c r="H9" s="13"/>
@@ -3430,11 +4121,11 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="13"/>
@@ -3457,11 +4148,11 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="13"/>
@@ -3482,11 +4173,11 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="1"/>
       <c r="G13" s="31"/>
       <c r="H13" s="13"/>
@@ -3507,9 +4198,9 @@
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="32"/>
       <c r="G14" s="30"/>
       <c r="H14" s="13"/>
@@ -3553,11 +4244,11 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="C16" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="13"/>
@@ -3580,11 +4271,11 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="C17" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="13"/>
@@ -3605,11 +4296,11 @@
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="C18" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="13"/>
@@ -3630,9 +4321,9 @@
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="13"/>
@@ -3676,11 +4367,11 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
+      <c r="C21" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="13"/>
@@ -3703,11 +4394,11 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="13"/>
@@ -3728,11 +4419,11 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91"/>
+      <c r="C23" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="13"/>
@@ -3753,9 +4444,9 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
       <c r="H24" s="13"/>
@@ -3837,8 +4528,8 @@
       <c r="O27" s="74"/>
       <c r="P27" s="74"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="76"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="104"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
@@ -3912,11 +4603,11 @@
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
+      <c r="C31" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="13"/>
@@ -3939,11 +4630,11 @@
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
+      <c r="C32" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="13"/>
@@ -3964,11 +4655,11 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
+      <c r="C33" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="31"/>
       <c r="G33" s="1"/>
       <c r="H33" s="13"/>
@@ -3989,9 +4680,9 @@
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="30"/>
       <c r="G34" s="29"/>
       <c r="H34" s="13"/>
@@ -4035,11 +4726,11 @@
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
+      <c r="C36" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="13"/>
@@ -4062,11 +4753,11 @@
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
+      <c r="C37" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="13"/>
@@ -4087,11 +4778,11 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
+      <c r="C38" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="13"/>
@@ -4112,9 +4803,9 @@
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
       <c r="H39" s="13"/>
@@ -4158,11 +4849,11 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97"/>
+      <c r="C41" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="13"/>
@@ -4185,11 +4876,11 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
+      <c r="C42" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="13"/>
@@ -4210,11 +4901,11 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91"/>
+      <c r="C43" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
       <c r="F43" s="31"/>
       <c r="G43" s="1"/>
       <c r="H43" s="13"/>
@@ -4235,9 +4926,9 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="30"/>
       <c r="G44" s="29"/>
       <c r="H44" s="13"/>
@@ -4281,11 +4972,11 @@
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
+      <c r="C46" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="13"/>
@@ -4308,11 +4999,11 @@
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="90"/>
-      <c r="E47" s="91"/>
+      <c r="C47" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="13"/>
@@ -4333,11 +5024,11 @@
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91"/>
+      <c r="C48" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="31"/>
       <c r="G48" s="1"/>
       <c r="H48" s="13"/>
@@ -4358,9 +5049,9 @@
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="30"/>
       <c r="G49" s="29"/>
       <c r="H49" s="13"/>
@@ -4404,11 +5095,11 @@
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="101"/>
+      <c r="C51" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="13"/>
@@ -4431,11 +5122,11 @@
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="90"/>
-      <c r="E52" s="91"/>
+      <c r="C52" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="13"/>
@@ -4456,11 +5147,11 @@
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="91"/>
+      <c r="C53" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
       <c r="F53" s="31"/>
       <c r="G53" s="1"/>
       <c r="H53" s="13"/>
@@ -4481,9 +5172,9 @@
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="30"/>
       <c r="G54" s="29"/>
       <c r="H54" s="13"/>
@@ -4574,20 +5265,20 @@
       <c r="E58" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="100"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="86"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
       <c r="K58" s="13"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="86"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="100"/>
       <c r="N58" s="13"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="86"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="100"/>
       <c r="Q58" s="13"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="88"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="102"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
@@ -4661,11 +5352,11 @@
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="96"/>
-      <c r="E62" s="97"/>
+      <c r="C62" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="82"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="13"/>
@@ -4688,11 +5379,11 @@
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="91"/>
+      <c r="C63" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="13"/>
@@ -4713,11 +5404,11 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="90"/>
-      <c r="E64" s="91"/>
+      <c r="C64" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="1"/>
       <c r="G64" s="31"/>
       <c r="H64" s="13"/>
@@ -4738,9 +5429,9 @@
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="94"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="83"/>
       <c r="F65" s="32"/>
       <c r="G65" s="30"/>
       <c r="H65" s="13"/>
@@ -4784,11 +5475,11 @@
       <c r="B67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="103"/>
-      <c r="E67" s="104"/>
+      <c r="C67" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="95"/>
+      <c r="E67" s="96"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="13"/>
@@ -4811,11 +5502,11 @@
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="110"/>
+      <c r="C68" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="88"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="13"/>
@@ -4836,11 +5527,11 @@
       <c r="B69" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="98"/>
-      <c r="E69" s="98"/>
+      <c r="C69" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="62"/>
       <c r="G69" s="1"/>
       <c r="H69" s="13"/>
@@ -4861,9 +5552,9 @@
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="93"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="30"/>
       <c r="G70" s="29"/>
       <c r="H70" s="13"/>
@@ -4966,8 +5657,8 @@
       <c r="O74" s="74"/>
       <c r="P74" s="74"/>
       <c r="Q74" s="13"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="76"/>
+      <c r="R74" s="103"/>
+      <c r="S74" s="104"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
@@ -5041,11 +5732,11 @@
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="100"/>
-      <c r="E78" s="101"/>
+      <c r="C78" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="92"/>
+      <c r="E78" s="93"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="13"/>
@@ -5068,11 +5759,11 @@
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="91"/>
+      <c r="C79" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="76"/>
+      <c r="E79" s="77"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="13"/>
@@ -5093,11 +5784,11 @@
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="90"/>
-      <c r="E80" s="91"/>
+      <c r="C80" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="76"/>
+      <c r="E80" s="77"/>
       <c r="F80" s="1"/>
       <c r="G80" s="31"/>
       <c r="H80" s="13"/>
@@ -5118,9 +5809,9 @@
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="94"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="83"/>
       <c r="F81" s="32"/>
       <c r="G81" s="30"/>
       <c r="H81" s="13"/>
@@ -5164,11 +5855,11 @@
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="D83" s="96"/>
-      <c r="E83" s="97"/>
+      <c r="C83" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="13"/>
@@ -5191,11 +5882,11 @@
       <c r="B84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="106"/>
-      <c r="E84" s="107"/>
+      <c r="C84" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="85"/>
+      <c r="E84" s="86"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="13"/>
@@ -5216,11 +5907,11 @@
       <c r="B85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="90"/>
-      <c r="E85" s="91"/>
+      <c r="C85" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="76"/>
+      <c r="E85" s="77"/>
       <c r="F85" s="31"/>
       <c r="G85" s="1"/>
       <c r="H85" s="13"/>
@@ -5241,9 +5932,9 @@
       <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="92"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="30"/>
       <c r="G86" s="29"/>
       <c r="H86" s="13"/>
@@ -5346,8 +6037,8 @@
       <c r="O90" s="74"/>
       <c r="P90" s="74"/>
       <c r="Q90" s="13"/>
-      <c r="R90" s="75"/>
-      <c r="S90" s="76"/>
+      <c r="R90" s="103"/>
+      <c r="S90" s="104"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
@@ -5421,11 +6112,11 @@
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="D94" s="96"/>
-      <c r="E94" s="97"/>
+      <c r="C94" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="81"/>
+      <c r="E94" s="82"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="13"/>
@@ -5448,11 +6139,11 @@
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="90"/>
-      <c r="E95" s="91"/>
+      <c r="C95" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="76"/>
+      <c r="E95" s="77"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="13"/>
@@ -5473,11 +6164,11 @@
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="89" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="90"/>
-      <c r="E96" s="91"/>
+      <c r="C96" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="76"/>
+      <c r="E96" s="77"/>
       <c r="F96" s="1"/>
       <c r="G96" s="31"/>
       <c r="H96" s="13"/>
@@ -5498,9 +6189,9 @@
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="94"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="83"/>
       <c r="F97" s="32"/>
       <c r="G97" s="30"/>
       <c r="H97" s="13"/>
@@ -5603,8 +6294,8 @@
       <c r="O101" s="74"/>
       <c r="P101" s="74"/>
       <c r="Q101" s="13"/>
-      <c r="R101" s="75"/>
-      <c r="S101" s="76"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="104"/>
     </row>
     <row r="102" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16"/>
@@ -5776,6 +6467,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
@@ -5792,77 +6554,6 @@
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C80:E80"/>
     <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R27:S27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5887,25 +6578,25 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5998,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J7" s="69">
         <f>G9/G8</f>
@@ -6012,7 +6703,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(G3:G7)/5</f>
@@ -6021,7 +6712,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B9" s="42">
         <v>0.3</v>
@@ -6045,19 +6736,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6118,7 +6809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6132,10 +6823,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6159,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6167,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6175,7 +6866,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6183,7 +6874,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6193,36 +6884,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>7</v>
@@ -6243,8 +6935,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="4"/>
       <c r="F3" s="41"/>
@@ -6254,128 +6951,234 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="115"/>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="C4" s="55"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="C5" s="55"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="C6" s="55"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="112"/>
+      <c r="B7" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="C7" s="55"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="C8" s="55"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="C9" s="55"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="C10" s="55"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="C11" s="55"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="113"/>
+      <c r="B12" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="C12" s="55"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="C13" s="55"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C14" s="55"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="112"/>
+      <c r="B15" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="C15" s="55"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="C17" s="55"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C18" s="55"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="A19" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="C19" s="55"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="C20" s="55"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C21" s="55"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
+      <c r="A22" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="C22" s="55"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="40"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
+      <c r="B23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="113"/>
+      <c r="B27" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,15 +7189,15 @@
     <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C3" s="42">
         <v>0</v>
@@ -6418,9 +7221,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="60" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C4" s="42">
         <v>1</v>
@@ -6432,128 +7235,116 @@
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C6" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C8" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L25"/>
+  <dimension ref="B19:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="42">
+        <v>1</v>
+      </c>
+      <c r="D20" s="42">
+        <v>2</v>
+      </c>
+      <c r="E20" s="42">
+        <v>3</v>
+      </c>
+      <c r="F20" s="42">
+        <v>4</v>
+      </c>
+      <c r="G20" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -6572,13 +7363,13 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="60"/>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>9</v>
@@ -6601,10 +7392,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="42"/>
@@ -6618,7 +7409,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="42"/>
@@ -6626,7 +7417,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="42"/>
@@ -6634,7 +7425,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="42"/>
@@ -6744,7 +7535,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -6759,70 +7550,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="42">
-        <v>1</v>
-      </c>
-      <c r="D20" s="42">
-        <v>2</v>
-      </c>
-      <c r="E20" s="42">
-        <v>3</v>
-      </c>
-      <c r="F20" s="42">
-        <v>4</v>
-      </c>
-      <c r="G20" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,23 +7568,23 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G3" s="42">
         <v>1</v>
@@ -6950,6 +7683,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6983,25 +7717,25 @@
     </row>
     <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7015,13 +7749,13 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="42" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7175,7 +7909,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="57"/>
@@ -7212,22 +7946,22 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="74" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="3"/>
       <c r="F2" s="74" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G2" s="74"/>
       <c r="I2" s="74" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4">
         <f>J3*(G3+G4)/2</f>
@@ -7235,13 +7969,13 @@
       </c>
       <c r="D3" s="15"/>
       <c r="F3" s="66" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -7249,12 +7983,12 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="15"/>
       <c r="F4" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -7264,7 +7998,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="15"/>
@@ -7275,31 +8009,31 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="65" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="65" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -7357,7 +8091,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
@@ -7365,7 +8099,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -7373,7 +8107,7 @@
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
@@ -7381,7 +8115,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4"/>
     </row>
